--- a/cafe/cafe_sums_2022.xlsx
+++ b/cafe/cafe_sums_2022.xlsx
@@ -1032,5 +1032,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>